--- a/commands/TT Macros/L2-L3_packet table.xlsx
+++ b/commands/TT Macros/L2-L3_packet table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="First run" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="New CMD test 12-17 Test 2" sheetId="12" r:id="rId10"/>
     <sheet name="DAQ Test 12-19, T5" sheetId="13" r:id="rId11"/>
     <sheet name="DAQ Test 12-19 Tfin" sheetId="14" r:id="rId12"/>
+    <sheet name="Full Test 2-Level 3" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="62">
   <si>
     <t>Command</t>
   </si>
@@ -2246,7 +2247,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:G81"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,7 +2312,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:G67" si="0">IF(C4=D4,"Match","")</f>
+        <f t="shared" ref="E4:E66" si="0">IF(C4=D4,"Match","")</f>
         <v>Match</v>
       </c>
       <c r="F4" t="s">
@@ -3809,7 +3810,7 @@
         <v>25</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:G81" si="2">IF(C68=D68,"Match","")</f>
+        <f t="shared" ref="E68:E81" si="2">IF(C68=D68,"Match","")</f>
         <v>Match</v>
       </c>
       <c r="F68" t="s">
@@ -4109,8 +4110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,13 +4140,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E2" t="str">
-        <f>IF(C2=D2,"Match","")</f>
+        <f t="shared" ref="E2:E33" si="0">IF(C2=D2,"Match","")</f>
         <v>Match</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="str">
-        <f>IF(C3=D3,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4163,7 +4164,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(C4=D4,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4181,7 +4182,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(C5=D5,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4196,7 +4197,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="str">
-        <f>IF(C6=D6,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4214,7 +4215,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(C7=D7,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4232,7 +4233,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(C8=D8,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4247,7 +4248,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(C9=D9,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4262,7 +4263,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(C10=D10,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4277,7 +4278,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(C11=D11,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4295,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(C12=D12,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4313,7 +4314,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(C13=D13,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4328,7 +4329,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(C14=D14,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4346,7 +4347,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(C15=D15,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4364,7 +4365,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(C16=D16,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4379,7 +4380,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(C17=D17,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4394,7 +4395,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="str">
-        <f>IF(C18=D18,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4409,7 +4410,7 @@
         <v>25</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(C19=D19,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4427,7 +4428,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(C20=D20,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4445,7 +4446,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(C21=D21,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4460,7 +4461,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="str">
-        <f>IF(C22=D22,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4478,7 +4479,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(C23=D23,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4496,7 +4497,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(C24=D24,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4511,7 +4512,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="str">
-        <f>IF(C25=D25,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4526,7 +4527,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(C26=D26,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4541,7 +4542,7 @@
         <v>25</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(C27=D27,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4559,7 +4560,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="str">
-        <f>IF(C28=D28,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4577,7 +4578,7 @@
         <v>25</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(C29=D29,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4592,7 +4593,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(C30=D30,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4610,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(C31=D31,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4628,7 +4629,7 @@
         <v>25</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(C32=D32,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4643,7 +4644,7 @@
         <v>25</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(C33=D33,"Match","")</f>
+        <f t="shared" si="0"/>
         <v>Match</v>
       </c>
     </row>
@@ -4658,7 +4659,7 @@
         <v>25</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(C34=D34,"Match","")</f>
+        <f t="shared" ref="E34:E65" si="1">IF(C34=D34,"Match","")</f>
         <v>Match</v>
       </c>
     </row>
@@ -4673,7 +4674,7 @@
         <v>25</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(C35=D35,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4691,7 +4692,7 @@
         <v>26</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(C36=D36,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4709,7 +4710,7 @@
         <v>25</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(C37=D37,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4724,7 +4725,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(C38=D38,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4742,7 +4743,7 @@
         <v>26</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(C39=D39,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4760,7 +4761,7 @@
         <v>25</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(C40=D40,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4775,7 +4776,7 @@
         <v>25</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(C41=D41,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4784,7 +4785,7 @@
         <v>25</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(C42=D42,"Match","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4802,7 +4803,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(C43=D43,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4820,7 +4821,7 @@
         <v>25</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(C44=D44,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4835,7 +4836,7 @@
         <v>25</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(C45=D45,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4853,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(C46=D46,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4871,7 +4872,7 @@
         <v>25</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(C47=D47,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4886,7 +4887,7 @@
         <v>25</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(C48=D48,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4901,7 +4902,7 @@
         <v>25</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(C49=D49,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4916,7 +4917,7 @@
         <v>25</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(C50=D50,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4934,7 +4935,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(C51=D51,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4952,7 +4953,7 @@
         <v>25</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(C52=D52,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4967,7 +4968,7 @@
         <v>25</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(C53=D53,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -4985,7 +4986,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(C54=D54,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5003,7 +5004,7 @@
         <v>25</v>
       </c>
       <c r="E55" t="str">
-        <f>IF(C55=D55,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5018,7 +5019,7 @@
         <v>25</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(C56=D56,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5033,7 +5034,7 @@
         <v>25</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(C57=D57,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5048,7 +5049,7 @@
         <v>25</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(C58=D58,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5066,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(C59=D59,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5084,7 +5085,7 @@
         <v>25</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(C60=D60,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5099,7 +5100,7 @@
         <v>25</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(C61=D61,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5117,7 +5118,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(C62=D62,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5135,7 +5136,7 @@
         <v>25</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(C63=D63,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5150,7 +5151,7 @@
         <v>25</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(C64=D64,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5165,7 +5166,7 @@
         <v>25</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(C65=D65,"Match","")</f>
+        <f t="shared" si="1"/>
         <v>Match</v>
       </c>
     </row>
@@ -5180,7 +5181,7 @@
         <v>25</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(C66=D66,"Match","")</f>
+        <f t="shared" ref="E66:E97" si="2">IF(C66=D66,"Match","")</f>
         <v>Match</v>
       </c>
     </row>
@@ -5198,7 +5199,7 @@
         <v>27</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(C67=D67,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5216,7 +5217,7 @@
         <v>27</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(C68=D68,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5234,7 +5235,7 @@
         <v>25</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(C69=D69,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5249,7 +5250,7 @@
         <v>25</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(C70=D70,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5267,7 +5268,7 @@
         <v>27</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(C71=D71,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5285,7 +5286,7 @@
         <v>25</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(C72=D72,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5300,7 +5301,7 @@
         <v>25</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(C73=D73,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5318,7 +5319,7 @@
         <v>26</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(C74=D74,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5336,7 +5337,7 @@
         <v>25</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(C75=D75,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5351,7 +5352,7 @@
         <v>25</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(C76=D76,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5369,7 +5370,7 @@
         <v>7</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(C77=D77,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5387,7 +5388,7 @@
         <v>25</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(C78=D78,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
@@ -5402,21 +5403,683 @@
         <v>25</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(C79=D79,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E80" t="str">
-        <f>IF(C80=D80,"Match","")</f>
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" t="str">
-        <f>IF(C81=D81,"Match","")</f>
-        <v>Match</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E9" si="0">IF(C3=D3,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="str">
+        <f>IF(C10=D10,"Match","")</f>
+        <v/>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" ref="E11:E44" si="1">IF(C11=D11,"Match","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="9"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="9"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="9"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/commands/TT Macros/L2-L3_packet table.xlsx
+++ b/commands/TT Macros/L2-L3_packet table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="First run" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="DAQ Test 12-19, T5" sheetId="13" r:id="rId11"/>
     <sheet name="DAQ Test 12-19 Tfin" sheetId="14" r:id="rId12"/>
     <sheet name="Full Test 2-Level 3" sheetId="16" r:id="rId13"/>
+    <sheet name="L2 Test-Jan2019, Run 1" sheetId="17" r:id="rId14"/>
+    <sheet name="L2 Test-Jan2019, Run 2" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="102">
   <si>
     <t>Command</t>
   </si>
@@ -223,6 +225,126 @@
   <si>
     <t>APID Recv</t>
   </si>
+  <si>
+    <t>sendln 'MNS_TRG_0_-25'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_TRG_0_19875'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_TRG_0_0'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_TRG_0_4294967298'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_TRG_0_12.34'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ECAL_0_1.2_3.4'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ECAL_0_-1.7_-123.23'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ECAL_0_15.02_200.02'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ECAL_0_0.0_0.0'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ECAL_0_3_9'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ECAL_0_1.3_140.41'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ECAL_0_19.0_3.4'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_NGATES_0_2_1.0_1.1_0.3_0.6'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_NGATES_0_5_1.2_1.3_0.4_0.8'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_ENABLE_ACT_0'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_1_50'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_1_210'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_2_50'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_2_210'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_3_50'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_3_210'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_4_50'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_4_210'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_5_30'</t>
+  </si>
+  <si>
+    <t>sendln 'HV_0_5_220'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_DISABLE_ACT_0'</t>
+  </si>
+  <si>
+    <t>pause2</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_INT_0_-51_87_399_5999'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_INT_0_-250_87_399_5999'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_INT_0_-51_87_399_8500'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_INT_0_-51_500_300_5999'</t>
+  </si>
+  <si>
+    <t>0X00</t>
+  </si>
+  <si>
+    <t>0X22</t>
+  </si>
+  <si>
+    <t>0X11</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_NGATES_0_2_1_1.0_1.1_0.3_0.6'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_NGATES_0_5_1_1.2_1.3_0.4_0.8'</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_NGATES_0_5_3_1.2_1.3_0.4_0.8'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                 </t>
+  </si>
+  <si>
+    <t>RESULT:</t>
+  </si>
+  <si>
+    <t>sendln 'MNS_NGATES_0_1_3_1.2_1.3_0.4_0.8'</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +393,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,6 +437,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -5181,7 +5311,7 @@
         <v>25</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E97" si="2">IF(C66=D66,"Match","")</f>
+        <f t="shared" ref="E66:E81" si="2">IF(C66=D66,"Match","")</f>
         <v>Match</v>
       </c>
     </row>
@@ -5428,8 +5558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6080,6 +6210,5020 @@
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(K2=L2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(K3=L3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M3:M37" si="1">IF(K4=L4,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E112" si="2">IF(C67=D67,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(K2=L2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(K3=L3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M37" si="1">IF(K4=L4,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E86" si="2">IF(C67=D67,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ref="E67:E112" si="3">IF(C87=D87,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/commands/TT Macros/L2-L3_packet table.xlsx
+++ b/commands/TT Macros/L2-L3_packet table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="First run" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Full Test 2-Level 3" sheetId="16" r:id="rId13"/>
     <sheet name="L2 Test-Jan2019, Run 1" sheetId="17" r:id="rId14"/>
     <sheet name="L2 Test-Jan2019, Run 2" sheetId="18" r:id="rId15"/>
+    <sheet name="L2 Test-Jan2019, Run 3" sheetId="19" r:id="rId16"/>
+    <sheet name="L2 Test-Jan2019, Run 4" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="105">
   <si>
     <t>Command</t>
   </si>
@@ -345,6 +347,15 @@
   <si>
     <t>sendln 'MNS_NGATES_0_1_3_1.2_1.3_0.4_0.8'</t>
   </si>
+  <si>
+    <t>FILENAMES</t>
+  </si>
+  <si>
+    <t>L2_tt_macro_0_1_01-28-2019_1243.bin</t>
+  </si>
+  <si>
+    <t>L2_tt_macro_0_1_01-28-2019_1632.bin</t>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -439,6 +450,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -6362,7 +6376,7 @@
         <v>7</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M3:M37" si="1">IF(K4=L4,"Match","")</f>
+        <f t="shared" ref="M4:M37" si="1">IF(K4=L4,"Match","")</f>
         <v>Match</v>
       </c>
     </row>
@@ -8733,8 +8747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10795,7 +10809,7 @@
         <v>25</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" ref="E67:E112" si="3">IF(C87=D87,"Match","")</f>
+        <f t="shared" ref="E87:E112" si="3">IF(C87=D87,"Match","")</f>
         <v>Match</v>
       </c>
     </row>
@@ -11222,6 +11236,4994 @@
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
+        <v>Match</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M111"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(K2=L2,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(K3=L3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M37" si="1">IF(K4=L4,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E111" si="2">IF(C67=D67,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(C2=D2,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(C3=D3,"Match","")</f>
+        <v>Match</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(K3=L3,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F4" s="12" t="str">
+        <f>IF(COUNTIF(E2:E111,"MATCH")=111-3, "SUCCESS", "FAIL")</f>
+        <v>SUCCESS</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M37" si="1">IF(K4=L4,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I25" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I37" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="12" t="str">
+        <f>IF(COUNTIF(M3:M37,"MATCH")=35, "SUCCESS", "FAIL")</f>
+        <v>SUCCESS</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E111" si="2">IF(C67=D67,"Match","")</f>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>93</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+      <c r="G101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="2"/>
+        <v>Match</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="2"/>
         <v>Match</v>
       </c>
     </row>
